--- a/medicine/Maladies infectieuses/Emmanuel_André/Emmanuel_André.xlsx
+++ b/medicine/Maladies infectieuses/Emmanuel_André/Emmanuel_André.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emmanuel_Andr%C3%A9</t>
+          <t>Emmanuel_André</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmanuel André est un médecin microbiologiste et chercheur belge responsable du laboratoire de diagnostic au pôle des maladies infectieuses de l’hôpital universitaire UZ Leuven. Il enseigne la microbiologie clinique à la KU Leuven[1]. 
-Il consacre une partie importante de ses recherches à la lutte contre des épidémies complexes, telles que la tuberculose et la COVID-19[2].
-En tant que responsable du laboratoire de référence national des pathogènes respiratoires, il a été nommé porte-parole interfédéral de la lutte contre le covid-19 par le gouvernement belge pour ensuite démissionner et devenir membre du groupe d'experts conseillant la première ministre pour la stratégie de sortie du confinement[3]. Il a également coordonné la mise en place d'une stratégie de "testing and tracing" avant de démissionner et de laisser cette fonction de coordination aux administrations publiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuel André est un médecin microbiologiste et chercheur belge responsable du laboratoire de diagnostic au pôle des maladies infectieuses de l’hôpital universitaire UZ Leuven. Il enseigne la microbiologie clinique à la KU Leuven. 
+Il consacre une partie importante de ses recherches à la lutte contre des épidémies complexes, telles que la tuberculose et la COVID-19.
+En tant que responsable du laboratoire de référence national des pathogènes respiratoires, il a été nommé porte-parole interfédéral de la lutte contre le covid-19 par le gouvernement belge pour ensuite démissionner et devenir membre du groupe d'experts conseillant la première ministre pour la stratégie de sortie du confinement. Il a également coordonné la mise en place d'une stratégie de "testing and tracing" avant de démissionner et de laisser cette fonction de coordination aux administrations publiques.
 </t>
         </is>
       </c>
